--- a/excel/pangkalan/master_pangkalan.xlsx
+++ b/excel/pangkalan/master_pangkalan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\sensus\excel\pangkalan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E93A03-7383-44E0-A3AE-6C02F66FC0AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8635FD2D-629B-4CB1-A697-32AFBE3163B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{168915BB-CF44-494D-836E-9DBA8E94AF72}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>nama_pangkalan</t>
   </si>
   <si>
     <t>alamat</t>
-  </si>
-  <si>
-    <t>kwaran</t>
   </si>
   <si>
     <t>kamabigus</t>
@@ -394,15 +391,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05F0E7F-E0CA-4473-B6E6-5912B7DD661D}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,9 +415,6 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
